--- a/biology/Botanique/Taeniatherum/Taeniatherum.xlsx
+++ b/biology/Botanique/Taeniatherum/Taeniatherum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taeniatherum est un genre de plantes monocotylédones  de la famille des Poaceae (graminées), originaire du bassin méditerranéen et d'Asie occidentale.
 Ce sont des plantes herbacées annuelles de 60 cm de haut environ, souvent mauvaises herbes des cultures.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juillet 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juillet 2016) :
 Taeniatherum caput-medusae (L.) Nevski, Trudy Bot. Inst. Akad. Nauk S.S.S.R., Ser. 1 (1933)</t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (15 juillet 2016)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (15 juillet 2016) :
 Taeniatherum caput-medusae
 sous-espèce Taeniatherum caput-medusae subsp. asperum
 sous-espèce Taeniatherum caput-medusae subsp. caput-medusae
